--- a/exchange/output/Закачка Световые Технологии распродажа.xlsx
+++ b/exchange/output/Закачка Световые Технологии распродажа.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,10 +423,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>279069</v>
+        <v>420665</v>
       </c>
       <c r="B2">
-        <v>384</v>
+        <v>3336</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -446,16 +446,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>420665</v>
+        <v>427529</v>
       </c>
       <c r="B3">
-        <v>3336</v>
+        <v>3850</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>50.02597402597402</v>
       </c>
       <c r="E3">
         <v>-15</v>
@@ -464,6 +464,29 @@
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>451291</v>
+      </c>
+      <c r="B4">
+        <v>1500</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>-15</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
     </row>
